--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X18 4200 bosquet replay.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X18 4200 bosquet replay.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView windowWidth="11940" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,27 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 4200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>150w</t>
-  </si>
-  <si>
-    <t>165w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -156,7 +135,22 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 4200</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
+    <t>150w</t>
+  </si>
+  <si>
     <t>submax</t>
+  </si>
+  <si>
+    <t>165w</t>
   </si>
   <si>
     <t>submax 2</t>
@@ -167,29 +161,378 @@
   <si>
     <t>max</t>
   </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -197,20 +540,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -218,6 +850,1192 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000775462962962963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000891203703703704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00100694444444444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00112268518518519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00123842592592593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00135416666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00146990740740741</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.00158564814814815</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.00170138888888889</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.00181712962962963</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.00193287037037037</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00204861111111111</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.00216435185185185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.00228009259259259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.00239583333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00251157407407407</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.00262731481481481</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.00274305555555556</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0028587962962963</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00297453703703704</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00309027777777778</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00320601851851852</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00332175925925926</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0034375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00355324074074074</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00366898148148148</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00378472222222222</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00390046296296296</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0040162037037037</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00413194444444444</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.00424768518518519</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00436342592592593</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00447916666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.00459490740740741</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00471064814814815</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00482638888888889</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.00494212962962963</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00505787037037037</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.00517361111111111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.00528935185185185</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.00540509259259259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.00552083333333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.00563657407407407</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.00575231481481481</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.00586805555555555</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.0059837962962963</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.00609953703703704</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.00621527777777778</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.00633101851851852</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.00644675925925926</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0065625</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.00667824074074074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.81</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.53</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.59</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.01</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.79</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.82</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.93</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.76</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.68</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.56</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.62</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.72</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.68</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.87</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="27560726"/>
+        <c:axId val="115990445"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="27560726"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="115990445"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="115990445"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27560726"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>332740</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11808460" y="3327400"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,21 +2319,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L41" workbookViewId="0">
-      <selection activeCell="V54" sqref="V54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="P49" workbookViewId="0">
+      <selection activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -537,7 +2355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -596,52 +2414,52 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="21:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -658,12 +2476,12 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.43868055555555552</v>
+        <v>0.438680555555556</v>
       </c>
       <c r="C6">
         <v>129.29</v>
@@ -675,13 +2493,13 @@
         <v>8.36</v>
       </c>
       <c r="F6">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="G6">
         <v>55.15</v>
       </c>
       <c r="H6">
-        <v>290.70999999999998</v>
+        <v>290.71</v>
       </c>
       <c r="I6">
         <v>102.07</v>
@@ -711,7 +2529,7 @@
         <v>49.79</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -729,12 +2547,12 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>5.4398148148148144E-4</v>
+        <v>0.000543981481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.43922453703703707</v>
+        <v>0.439224537037037</v>
       </c>
       <c r="C7">
         <v>120.27</v>
@@ -773,7 +2591,7 @@
         <v>1472.02</v>
       </c>
       <c r="O7">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="P7">
         <v>120.79</v>
@@ -797,12 +2615,12 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>6.5972222222222213E-4</v>
+        <v>0.000659722222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.43934027777777779</v>
+        <v>0.439340277777778</v>
       </c>
       <c r="C8">
         <v>114.81</v>
@@ -829,7 +2647,7 @@
         <v>120.21</v>
       </c>
       <c r="K8">
-        <v>67.790000000000006</v>
+        <v>67.79</v>
       </c>
       <c r="L8">
         <v>116.37</v>
@@ -841,7 +2659,7 @@
         <v>1562.54</v>
       </c>
       <c r="O8">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="P8">
         <v>121.17</v>
@@ -865,18 +2683,18 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>7.7546296296296304E-4</v>
+        <v>0.000775462962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.43945601851851851</v>
+        <v>0.439456018518519</v>
       </c>
       <c r="C9">
         <v>116.75</v>
       </c>
       <c r="D9">
-        <v>64.290000000000006</v>
+        <v>64.29</v>
       </c>
       <c r="E9">
         <v>7.51</v>
@@ -933,12 +2751,12 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>8.9120370370370362E-4</v>
+        <v>0.000891203703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.43957175925925923</v>
+        <v>0.439571759259259</v>
       </c>
       <c r="C10">
         <v>125.8</v>
@@ -1001,12 +2819,12 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>1.0069444444444444E-3</v>
+        <v>0.00100694444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.43968750000000001</v>
+        <v>0.4396875</v>
       </c>
       <c r="C11">
         <v>117.4</v>
@@ -1069,12 +2887,12 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>1.1226851851851851E-3</v>
+        <v>0.00112268518518519</v>
       </c>
       <c r="B12" s="1">
-        <v>0.43980324074074079</v>
+        <v>0.439803240740741</v>
       </c>
       <c r="C12">
         <v>117.04</v>
@@ -1137,12 +2955,12 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>1.2384259259259258E-3</v>
+        <v>0.00123842592592593</v>
       </c>
       <c r="B13" s="1">
-        <v>0.43991898148148145</v>
+        <v>0.439918981481481</v>
       </c>
       <c r="C13">
         <v>127.35</v>
@@ -1205,12 +3023,12 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>1.3541666666666667E-3</v>
+        <v>0.00135416666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.44003472222222223</v>
+        <v>0.440034722222222</v>
       </c>
       <c r="C14">
         <v>125.32</v>
@@ -1222,7 +3040,7 @@
         <v>7.9</v>
       </c>
       <c r="F14">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="G14">
         <v>54.85</v>
@@ -1237,7 +3055,7 @@
         <v>122</v>
       </c>
       <c r="K14">
-        <v>68.290000000000006</v>
+        <v>68.29</v>
       </c>
       <c r="L14">
         <v>114.92</v>
@@ -1259,11 +3077,11 @@
       </c>
       <c r="U14" s="2">
         <f>AVERAGE(C6:C14)</f>
-        <v>121.55888888888889</v>
+        <v>121.558888888889</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" ref="V14:AI14" si="0">AVERAGE(D6:D14)</f>
-        <v>63.065555555555562</v>
+        <v>63.0655555555556</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="0"/>
@@ -1271,59 +3089,59 @@
       </c>
       <c r="X14" s="2">
         <f t="shared" si="0"/>
-        <v>4.2644444444444449</v>
+        <v>4.26444444444444</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="0"/>
-        <v>54.446666666666673</v>
+        <v>54.4466666666667</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="0"/>
-        <v>302.89444444444439</v>
+        <v>302.894444444444</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="0"/>
-        <v>97.009999999999991</v>
+        <v>97.01</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="0"/>
-        <v>120.86999999999999</v>
+        <v>120.87</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="0"/>
-        <v>67.275555555555556</v>
+        <v>67.2755555555556</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" si="0"/>
-        <v>115.81666666666666</v>
+        <v>115.816666666667</v>
       </c>
       <c r="AE14" s="2">
         <f t="shared" si="0"/>
-        <v>825.73333333333323</v>
+        <v>825.733333333333</v>
       </c>
       <c r="AF14" s="2">
         <f t="shared" si="0"/>
-        <v>1485.3777777777777</v>
+        <v>1485.37777777778</v>
       </c>
       <c r="AG14" s="2">
         <f t="shared" si="0"/>
-        <v>4.652222222222222</v>
+        <v>4.65222222222222</v>
       </c>
       <c r="AH14" s="2">
         <f t="shared" si="0"/>
-        <v>120.62222222222223</v>
+        <v>120.622222222222</v>
       </c>
       <c r="AI14" s="2">
         <f t="shared" si="0"/>
-        <v>49.362222222222222</v>
+        <v>49.3622222222222</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>1.4699074074074074E-3</v>
+        <v>0.00146990740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.44015046296296295</v>
+        <v>0.440150462962963</v>
       </c>
       <c r="C15">
         <v>117.09</v>
@@ -1386,12 +3204,12 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>1.5856481481481479E-3</v>
+        <v>0.00158564814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.44026620370370373</v>
+        <v>0.440266203703704</v>
       </c>
       <c r="C16">
         <v>122.07</v>
@@ -1409,7 +3227,7 @@
         <v>54.4</v>
       </c>
       <c r="H16">
-        <v>305.60000000000002</v>
+        <v>305.6</v>
       </c>
       <c r="I16">
         <v>96.59</v>
@@ -1454,12 +3272,12 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.7013888888888892E-3</v>
+        <v>0.00170138888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.4403819444444444</v>
+        <v>0.440381944444444</v>
       </c>
       <c r="C17">
         <v>125.34</v>
@@ -1522,12 +3340,12 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>1.8171296296296297E-3</v>
+        <v>0.00181712962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.44049768518518517</v>
+        <v>0.440497685185185</v>
       </c>
       <c r="C18">
         <v>118.96</v>
@@ -1545,7 +3363,7 @@
         <v>53.48</v>
       </c>
       <c r="H18">
-        <v>298.60000000000002</v>
+        <v>298.6</v>
       </c>
       <c r="I18">
         <v>90.28</v>
@@ -1566,7 +3384,7 @@
         <v>1593.79</v>
       </c>
       <c r="O18">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="P18">
         <v>119.94</v>
@@ -1590,12 +3408,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>1.9328703703703704E-3</v>
+        <v>0.00193287037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.44061342592592595</v>
+        <v>0.440613425925926</v>
       </c>
       <c r="C19">
         <v>117.16</v>
@@ -1622,7 +3440,7 @@
         <v>117.42</v>
       </c>
       <c r="K19">
-        <v>66.209999999999994</v>
+        <v>66.21</v>
       </c>
       <c r="L19">
         <v>111.23</v>
@@ -1658,12 +3476,12 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>2.0486111111111113E-3</v>
+        <v>0.00204861111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.44072916666666667</v>
+        <v>0.440729166666667</v>
       </c>
       <c r="C20">
         <v>118.84</v>
@@ -1711,7 +3529,7 @@
         <v>51.89</v>
       </c>
       <c r="S20" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -1729,15 +3547,15 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>2.1643518518518518E-3</v>
+        <v>0.00216435185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.44084490740740739</v>
+        <v>0.440844907407407</v>
       </c>
       <c r="C21">
-        <v>137.27000000000001</v>
+        <v>137.27</v>
       </c>
       <c r="D21">
         <v>59.49</v>
@@ -1752,7 +3570,7 @@
         <v>53.55</v>
       </c>
       <c r="H21">
-        <v>305.04000000000002</v>
+        <v>305.04</v>
       </c>
       <c r="I21">
         <v>90.94</v>
@@ -1797,12 +3615,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>2.2800925925925927E-3</v>
+        <v>0.00228009259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.44096064814814812</v>
+        <v>0.440960648148148</v>
       </c>
       <c r="C22">
         <v>156.93</v>
@@ -1811,7 +3629,7 @@
         <v>63.43</v>
       </c>
       <c r="E22">
-        <v>9.9600000000000009</v>
+        <v>9.96</v>
       </c>
       <c r="F22">
         <v>5.54</v>
@@ -1835,7 +3653,7 @@
         <v>116.21</v>
       </c>
       <c r="M22">
-        <v>552.91999999999996</v>
+        <v>552.92</v>
       </c>
       <c r="N22">
         <v>994.62</v>
@@ -1865,18 +3683,18 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.3958333333333336E-3</v>
+        <v>0.00239583333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.44107638888888889</v>
+        <v>0.441076388888889</v>
       </c>
       <c r="C23">
         <v>171.31</v>
       </c>
       <c r="D23">
-        <v>65.069999999999993</v>
+        <v>65.07</v>
       </c>
       <c r="E23">
         <v>11.15</v>
@@ -1933,12 +3751,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.5115740740740741E-3</v>
+        <v>0.00251157407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.44119212962962967</v>
+        <v>0.44119212962963</v>
       </c>
       <c r="C24">
         <v>170.74</v>
@@ -2001,15 +3819,15 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.627314814814815E-3</v>
+        <v>0.00262731481481481</v>
       </c>
       <c r="B25" s="1">
-        <v>0.44130787037037034</v>
+        <v>0.44130787037037</v>
       </c>
       <c r="C25">
-        <v>163.33000000000001</v>
+        <v>163.33</v>
       </c>
       <c r="D25">
         <v>62.21</v>
@@ -2069,12 +3887,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.7430555555555559E-3</v>
+        <v>0.00274305555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.44142361111111111</v>
+        <v>0.441423611111111</v>
       </c>
       <c r="C26">
         <v>162.1</v>
@@ -2083,7 +3901,7 @@
         <v>62.96</v>
       </c>
       <c r="E26">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="F26">
         <v>5.67</v>
@@ -2137,15 +3955,15 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.8587962962962963E-3</v>
+        <v>0.0028587962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.44153935185185184</v>
+        <v>0.441539351851852</v>
       </c>
       <c r="C27">
-        <v>160.61000000000001</v>
+        <v>160.61</v>
       </c>
       <c r="D27">
         <v>64.08</v>
@@ -2175,7 +3993,7 @@
         <v>113.78</v>
       </c>
       <c r="M27">
-        <v>538.91999999999996</v>
+        <v>538.92</v>
       </c>
       <c r="N27">
         <v>969.44</v>
@@ -2205,15 +4023,15 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.9745370370370373E-3</v>
+        <v>0.00297453703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.44165509259259261</v>
+        <v>0.441655092592593</v>
       </c>
       <c r="C28">
-        <v>158.61000000000001</v>
+        <v>158.61</v>
       </c>
       <c r="D28">
         <v>64.11</v>
@@ -2273,15 +4091,15 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>3.0902777777777782E-3</v>
+        <v>0.00309027777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.44177083333333328</v>
+        <v>0.441770833333333</v>
       </c>
       <c r="C29">
-        <v>159.77000000000001</v>
+        <v>159.77</v>
       </c>
       <c r="D29">
         <v>66.08</v>
@@ -2341,12 +4159,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>3.2060185185185191E-3</v>
+        <v>0.00320601851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.44188657407407406</v>
+        <v>0.441886574074074</v>
       </c>
       <c r="C30">
         <v>163.19</v>
@@ -2409,18 +4227,18 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.3217592592592591E-3</v>
+        <v>0.00332175925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.44200231481481483</v>
+        <v>0.442002314814815</v>
       </c>
       <c r="C31">
         <v>161.18</v>
       </c>
       <c r="D31">
-        <v>67.069999999999993</v>
+        <v>67.07</v>
       </c>
       <c r="E31">
         <v>10.81</v>
@@ -2447,7 +4265,7 @@
         <v>116.13</v>
       </c>
       <c r="M31">
-        <v>526.95000000000005</v>
+        <v>526.95</v>
       </c>
       <c r="N31">
         <v>947.91</v>
@@ -2477,12 +4295,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.4375E-3</v>
+        <v>0.0034375</v>
       </c>
       <c r="B32" s="1">
-        <v>0.44211805555555556</v>
+        <v>0.442118055555556</v>
       </c>
       <c r="C32">
         <v>160.84</v>
@@ -2545,12 +4363,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.5532407407407405E-3</v>
+        <v>0.00355324074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.44223379629629633</v>
+        <v>0.442233796296296</v>
       </c>
       <c r="C33">
         <v>159.37</v>
@@ -2613,9 +4431,9 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.6689814814814814E-3</v>
+        <v>0.00366898148148148</v>
       </c>
       <c r="B34" s="1">
         <v>0.442349537037037</v>
@@ -2624,7 +4442,7 @@
         <v>159.54</v>
       </c>
       <c r="D34">
-        <v>70.819999999999993</v>
+        <v>70.82</v>
       </c>
       <c r="E34">
         <v>11.3</v>
@@ -2681,12 +4499,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.7847222222222223E-3</v>
+        <v>0.00378472222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.44246527777777778</v>
+        <v>0.442465277777778</v>
       </c>
       <c r="C35">
         <v>160.68</v>
@@ -2749,18 +4567,18 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.9004629629629632E-3</v>
+        <v>0.00390046296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.44258101851851855</v>
+        <v>0.442581018518519</v>
       </c>
       <c r="C36">
         <v>162.59</v>
       </c>
       <c r="D36">
-        <v>70.930000000000007</v>
+        <v>70.93</v>
       </c>
       <c r="E36">
         <v>11.53</v>
@@ -2817,12 +4635,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>4.0162037037037033E-3</v>
+        <v>0.0040162037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.44269675925925928</v>
+        <v>0.442696759259259</v>
       </c>
       <c r="C37">
         <v>164.92</v>
@@ -2870,7 +4688,7 @@
         <v>43.86</v>
       </c>
       <c r="S37" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -2888,9 +4706,9 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>4.1319444444444442E-3</v>
+        <v>0.00413194444444444</v>
       </c>
       <c r="B38" s="1">
         <v>0.4428125</v>
@@ -2956,12 +4774,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>4.2476851851851851E-3</v>
+        <v>0.00424768518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.44292824074074072</v>
+        <v>0.442928240740741</v>
       </c>
       <c r="C39">
         <v>176.41</v>
@@ -3024,12 +4842,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.363425925925926E-3</v>
+        <v>0.00436342592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.4430439814814815</v>
+        <v>0.443043981481481</v>
       </c>
       <c r="C40">
         <v>180.39</v>
@@ -3074,7 +4892,7 @@
         <v>115.01</v>
       </c>
       <c r="Q40">
-        <v>38.450000000000003</v>
+        <v>38.45</v>
       </c>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -3092,18 +4910,18 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.4791666666666669E-3</v>
+        <v>0.00447916666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.44315972222222227</v>
+        <v>0.443159722222222</v>
       </c>
       <c r="C41">
         <v>183.8</v>
       </c>
       <c r="D41">
-        <v>64.180000000000007</v>
+        <v>64.18</v>
       </c>
       <c r="E41">
         <v>11.79</v>
@@ -3160,12 +4978,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.5949074074074078E-3</v>
+        <v>0.00459490740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.44327546296296294</v>
+        <v>0.443275462962963</v>
       </c>
       <c r="C42">
         <v>186.68</v>
@@ -3213,7 +5031,7 @@
         <v>39.58</v>
       </c>
       <c r="S42" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -3231,12 +5049,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.7106481481481478E-3</v>
+        <v>0.00471064814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.44339120370370372</v>
+        <v>0.443391203703704</v>
       </c>
       <c r="C43">
         <v>189.58</v>
@@ -3257,7 +5075,7 @@
         <v>177</v>
       </c>
       <c r="I43">
-        <v>78.069999999999993</v>
+        <v>78.07</v>
       </c>
       <c r="J43">
         <v>113.09</v>
@@ -3299,12 +5117,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.8263888888888887E-3</v>
+        <v>0.00482638888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.44350694444444444</v>
+        <v>0.443506944444444</v>
       </c>
       <c r="C44">
         <v>192.17</v>
@@ -3367,12 +5185,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.9421296296296288E-3</v>
+        <v>0.00494212962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.44362268518518522</v>
+        <v>0.443622685185185</v>
       </c>
       <c r="C45">
         <v>193.72</v>
@@ -3435,12 +5253,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>5.0578703703703706E-3</v>
+        <v>0.00505787037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.44373842592592588</v>
+        <v>0.443738425925926</v>
       </c>
       <c r="C46">
         <v>194.51</v>
@@ -3503,18 +5321,18 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>5.1736111111111115E-3</v>
+        <v>0.00517361111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.44385416666666666</v>
+        <v>0.443854166666667</v>
       </c>
       <c r="C47">
         <v>195.13</v>
       </c>
       <c r="D47">
-        <v>64.010000000000005</v>
+        <v>64.01</v>
       </c>
       <c r="E47">
         <v>12.49</v>
@@ -3556,15 +5374,15 @@
         <v>22.38</v>
       </c>
       <c r="S47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U47" s="2">
         <f>AVERAGE(C44:C47)</f>
-        <v>193.88249999999999</v>
+        <v>193.8825</v>
       </c>
       <c r="V47" s="2">
         <f t="shared" ref="V47:AI47" si="1">AVERAGE(D44:D47)</f>
-        <v>64.064999999999998</v>
+        <v>64.065</v>
       </c>
       <c r="W47" s="2">
         <f t="shared" si="1"/>
@@ -3572,11 +5390,11 @@
       </c>
       <c r="X47" s="2">
         <f t="shared" si="1"/>
-        <v>6.9050000000000002</v>
+        <v>6.905</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="1"/>
-        <v>55.557500000000005</v>
+        <v>55.5575</v>
       </c>
       <c r="Z47" s="2">
         <f t="shared" si="1"/>
@@ -3600,15 +5418,15 @@
       </c>
       <c r="AE47" s="2">
         <f t="shared" si="1"/>
-        <v>439.43999999999994</v>
+        <v>439.44</v>
       </c>
       <c r="AF47" s="2">
         <f t="shared" si="1"/>
-        <v>790.49000000000012</v>
+        <v>790.49</v>
       </c>
       <c r="AG47" s="2">
         <f t="shared" si="1"/>
-        <v>6.4824999999999999</v>
+        <v>6.4825</v>
       </c>
       <c r="AH47" s="2">
         <f t="shared" si="1"/>
@@ -3616,15 +5434,15 @@
       </c>
       <c r="AI47" s="2">
         <f t="shared" si="1"/>
-        <v>31.907499999999999</v>
+        <v>31.9075</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>5.2893518518518515E-3</v>
+        <v>0.00528935185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.44396990740740744</v>
+        <v>0.443969907407407</v>
       </c>
       <c r="C48">
         <v>195.62</v>
@@ -3687,12 +5505,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.4050925925925924E-3</v>
+        <v>0.00540509259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.44408564814814816</v>
+        <v>0.444085648148148</v>
       </c>
       <c r="C49">
         <v>196.21</v>
@@ -3740,7 +5558,7 @@
         <v>43.52</v>
       </c>
       <c r="S49" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -3758,12 +5576,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.5208333333333333E-3</v>
+        <v>0.00552083333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.44420138888888888</v>
+        <v>0.444201388888889</v>
       </c>
       <c r="C50">
         <v>197.15</v>
@@ -3811,7 +5629,7 @@
         <v>36.25</v>
       </c>
       <c r="S50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U50" s="2">
         <f>AVERAGE(C47:C50)</f>
@@ -3819,23 +5637,23 @@
       </c>
       <c r="V50" s="2">
         <f t="shared" ref="V50" si="2">AVERAGE(D47:D50)</f>
-        <v>63.924999999999997</v>
+        <v>63.925</v>
       </c>
       <c r="W50" s="2">
         <f t="shared" ref="W50" si="3">AVERAGE(E47:E50)</f>
-        <v>12.532499999999999</v>
+        <v>12.5325</v>
       </c>
       <c r="X50" s="2">
         <f t="shared" ref="X50" si="4">AVERAGE(F47:F50)</f>
-        <v>6.9649999999999999</v>
+        <v>6.965</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" ref="Y50" si="5">AVERAGE(G47:G50)</f>
-        <v>56.522500000000008</v>
+        <v>56.5225</v>
       </c>
       <c r="Z50" s="2">
         <f t="shared" ref="Z50" si="6">AVERAGE(H47:H50)</f>
-        <v>223.23750000000001</v>
+        <v>223.2375</v>
       </c>
       <c r="AA50" s="2">
         <f t="shared" ref="AA50" si="7">AVERAGE(I47:I50)</f>
@@ -3843,19 +5661,19 @@
       </c>
       <c r="AB50" s="2">
         <f t="shared" ref="AB50" si="8">AVERAGE(J47:J50)</f>
-        <v>124.33999999999999</v>
+        <v>124.34</v>
       </c>
       <c r="AC50" s="2">
         <f t="shared" ref="AC50" si="9">AVERAGE(K47:K50)</f>
-        <v>52.545000000000002</v>
+        <v>52.545</v>
       </c>
       <c r="AD50" s="2">
         <f t="shared" ref="AD50" si="10">AVERAGE(L47:L50)</f>
-        <v>113.11250000000001</v>
+        <v>113.1125</v>
       </c>
       <c r="AE50" s="2">
         <f t="shared" ref="AE50" si="11">AVERAGE(M47:M50)</f>
-        <v>444.19499999999999</v>
+        <v>444.195</v>
       </c>
       <c r="AF50" s="2">
         <f t="shared" ref="AF50" si="12">AVERAGE(N47:N50)</f>
@@ -3871,15 +5689,15 @@
       </c>
       <c r="AI50" s="2">
         <f t="shared" ref="AI50" si="15">AVERAGE(Q47:Q50)</f>
-        <v>35.107500000000002</v>
+        <v>35.1075</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.6365740740740742E-3</v>
+        <v>0.00563657407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.4443171296296296</v>
+        <v>0.44431712962963</v>
       </c>
       <c r="C51">
         <v>197.62</v>
@@ -3942,12 +5760,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.7523148148148143E-3</v>
+        <v>0.00575231481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.44443287037037038</v>
+        <v>0.44443287037037</v>
       </c>
       <c r="C52">
         <v>198.44</v>
@@ -4010,12 +5828,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.8680555555555543E-3</v>
+        <v>0.00586805555555555</v>
       </c>
       <c r="B53" s="1">
-        <v>0.44454861111111116</v>
+        <v>0.444548611111111</v>
       </c>
       <c r="C53">
         <v>199.38</v>
@@ -4060,18 +5878,18 @@
         <v>105.61</v>
       </c>
       <c r="Q53">
-        <v>35.729999999999997</v>
+        <v>35.73</v>
       </c>
       <c r="S53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U53" s="2">
         <f>AVERAGE(C50:C53)</f>
-        <v>198.14750000000001</v>
+        <v>198.1475</v>
       </c>
       <c r="V53" s="2">
         <f t="shared" ref="V53" si="16">AVERAGE(D50:D53)</f>
-        <v>64.045000000000002</v>
+        <v>64.045</v>
       </c>
       <c r="W53" s="2">
         <f t="shared" ref="W53" si="17">AVERAGE(E50:E53)</f>
@@ -4079,7 +5897,7 @@
       </c>
       <c r="X53" s="2">
         <f t="shared" ref="X53" si="18">AVERAGE(F50:F53)</f>
-        <v>7.0550000000000006</v>
+        <v>7.055</v>
       </c>
       <c r="Y53" s="2">
         <f t="shared" ref="Y53" si="19">AVERAGE(G50:G53)</f>
@@ -4087,7 +5905,7 @@
       </c>
       <c r="Z53" s="2">
         <f t="shared" ref="Z53" si="20">AVERAGE(H50:H53)</f>
-        <v>225.90750000000003</v>
+        <v>225.9075</v>
       </c>
       <c r="AA53" s="2">
         <f t="shared" ref="AA53" si="21">AVERAGE(I50:I53)</f>
@@ -4099,7 +5917,7 @@
       </c>
       <c r="AC53" s="2">
         <f t="shared" ref="AC53" si="23">AVERAGE(K50:K53)</f>
-        <v>50.962500000000006</v>
+        <v>50.9625</v>
       </c>
       <c r="AD53" s="2">
         <f t="shared" ref="AD53" si="24">AVERAGE(L50:L53)</f>
@@ -4107,7 +5925,7 @@
       </c>
       <c r="AE53" s="2">
         <f t="shared" ref="AE53" si="25">AVERAGE(M50:M53)</f>
-        <v>428.14750000000004</v>
+        <v>428.1475</v>
       </c>
       <c r="AF53" s="2">
         <f t="shared" ref="AF53" si="26">AVERAGE(N50:N53)</f>
@@ -4115,7 +5933,7 @@
       </c>
       <c r="AG53" s="2">
         <f t="shared" ref="AG53" si="27">AVERAGE(O50:O53)</f>
-        <v>6.5824999999999996</v>
+        <v>6.5825</v>
       </c>
       <c r="AH53" s="2">
         <f t="shared" ref="AH53" si="28">AVERAGE(P50:P53)</f>
@@ -4123,15 +5941,15 @@
       </c>
       <c r="AI53" s="2">
         <f t="shared" ref="AI53" si="29">AVERAGE(Q50:Q53)</f>
-        <v>35.332499999999996</v>
+        <v>35.3325</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>5.9837962962962961E-3</v>
+        <v>0.0059837962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.44466435185185182</v>
+        <v>0.444664351851852</v>
       </c>
       <c r="C54">
         <v>199.47</v>
@@ -4194,12 +6012,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>6.0995370370370361E-3</v>
+        <v>0.00609953703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.4447800925925926</v>
+        <v>0.444780092592593</v>
       </c>
       <c r="C55">
         <v>199.8</v>
@@ -4262,12 +6080,12 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>6.215277777777777E-3</v>
+        <v>0.00621527777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.44489583333333332</v>
+        <v>0.444895833333333</v>
       </c>
       <c r="C56">
         <v>200.63</v>
@@ -4315,75 +6133,75 @@
         <v>28.77</v>
       </c>
       <c r="S56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U56" s="2">
         <f>AVERAGE(C53:C56)</f>
-        <v>199.82000000000002</v>
+        <v>199.82</v>
       </c>
       <c r="V56" s="2">
         <f t="shared" ref="V56" si="30">AVERAGE(D53:D56)</f>
         <v>63.28</v>
       </c>
       <c r="W56" s="2">
-        <f t="shared" ref="W56" si="31">AVERAGE(E53:E56)</f>
-        <v>12.645</v>
+        <f>AVERAGE(E50:E56)</f>
+        <v>12.6657142857143</v>
       </c>
       <c r="X56" s="2">
-        <f t="shared" ref="X56" si="32">AVERAGE(F53:F56)</f>
+        <f t="shared" ref="X56" si="31">AVERAGE(F53:F56)</f>
         <v>7.03</v>
       </c>
       <c r="Y56" s="2">
-        <f t="shared" ref="Y56" si="33">AVERAGE(G53:G56)</f>
-        <v>54.755000000000003</v>
+        <f t="shared" ref="Y56" si="32">AVERAGE(G53:G56)</f>
+        <v>54.755</v>
       </c>
       <c r="Z56" s="2">
-        <f t="shared" ref="Z56" si="34">AVERAGE(H53:H56)</f>
+        <f t="shared" ref="Z56" si="33">AVERAGE(H53:H56)</f>
         <v>207.845</v>
       </c>
       <c r="AA56" s="2">
-        <f t="shared" ref="AA56" si="35">AVERAGE(I53:I56)</f>
-        <v>99.657499999999999</v>
+        <f t="shared" ref="AA56" si="34">AVERAGE(I53:I56)</f>
+        <v>99.6575</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" ref="AB56" si="36">AVERAGE(J53:J56)</f>
+        <f t="shared" ref="AB56" si="35">AVERAGE(J53:J56)</f>
         <v>121.69</v>
       </c>
       <c r="AC56" s="2">
-        <f t="shared" ref="AC56" si="37">AVERAGE(K53:K56)</f>
+        <f t="shared" ref="AC56" si="36">AVERAGE(K53:K56)</f>
         <v>50.59</v>
       </c>
       <c r="AD56" s="2">
-        <f t="shared" ref="AD56" si="38">AVERAGE(L53:L56)</f>
+        <f t="shared" ref="AD56" si="37">AVERAGE(L53:L56)</f>
         <v>115.64</v>
       </c>
       <c r="AE56" s="2">
-        <f t="shared" ref="AE56" si="39">AVERAGE(M53:M56)</f>
-        <v>426.02750000000003</v>
+        <f t="shared" ref="AE56" si="38">AVERAGE(M53:M56)</f>
+        <v>426.0275</v>
       </c>
       <c r="AF56" s="2">
-        <f t="shared" ref="AF56" si="40">AVERAGE(N53:N56)</f>
+        <f t="shared" ref="AF56" si="39">AVERAGE(N53:N56)</f>
         <v>766.36</v>
       </c>
       <c r="AG56" s="2">
-        <f t="shared" ref="AG56" si="41">AVERAGE(O53:O56)</f>
-        <v>6.5075000000000003</v>
+        <f t="shared" ref="AG56" si="40">AVERAGE(O53:O56)</f>
+        <v>6.5075</v>
       </c>
       <c r="AH56" s="2">
-        <f t="shared" ref="AH56" si="42">AVERAGE(P53:P56)</f>
+        <f t="shared" ref="AH56" si="41">AVERAGE(P53:P56)</f>
         <v>105.265</v>
       </c>
       <c r="AI56" s="2">
-        <f t="shared" ref="AI56" si="43">AVERAGE(Q53:Q56)</f>
-        <v>37.435000000000002</v>
+        <f t="shared" ref="AI56" si="42">AVERAGE(Q53:Q56)</f>
+        <v>37.435</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
-        <v>6.3310185185185197E-3</v>
+        <v>0.00633101851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.4450115740740741</v>
+        <v>0.445011574074074</v>
       </c>
       <c r="C57">
         <v>201.69</v>
@@ -4431,15 +6249,15 @@
         <v>27.93</v>
       </c>
       <c r="S57" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>6.4467592592592597E-3</v>
+        <v>0.00644675925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.44512731481481477</v>
+        <v>0.445127314814815</v>
       </c>
       <c r="C58">
         <v>202.57</v>
@@ -4487,12 +6305,12 @@
         <v>24.94</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>6.5624999999999998E-3</v>
+        <v>0.0065625</v>
       </c>
       <c r="B59" s="1">
-        <v>0.44524305555555554</v>
+        <v>0.445243055555556</v>
       </c>
       <c r="C59">
         <v>200.28</v>
@@ -4540,12 +6358,12 @@
         <v>33.17</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>6.6782407407407415E-3</v>
+        <v>0.00667824074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>0.44535879629629632</v>
+        <v>0.445358796296296</v>
       </c>
       <c r="C60">
         <v>197.38</v>
@@ -4593,12 +6411,12 @@
         <v>38.72</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>6.7939814814814816E-3</v>
+        <v>0.00679398148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>0.44547453703703704</v>
+        <v>0.445474537037037</v>
       </c>
       <c r="C61">
         <v>195.53</v>
@@ -4643,39 +6461,49 @@
         <v>110.96</v>
       </c>
       <c r="Q61">
-        <v>38.729999999999997</v>
+        <v>38.73</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>